--- a/data/trans_orig/P17G-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P17G-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{778DC098-5FCE-464B-A6F9-24257C2CBF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A46C13-0DF9-46AE-B4AB-9D03D7850480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{493D21D5-C817-4E21-A50A-B7C0EF27DE3E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B958C11-B77E-4FEF-93AC-F8C43FC5C6B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="589">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,8%)</t>
   </si>
@@ -98,1792 +98,1714 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>8,84%</t>
+    <t>9,14%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,11%)</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,33%)</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,6%)</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,11%)</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,33%)</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,6%)</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>7,5%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>6,91%</t>
+    <t>6,8%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>2,92%</t>
   </si>
   <si>
     <t>89,71%</t>
   </si>
   <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBB6E47-010D-40D0-BC8D-721FC449FA24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8D2BD6-1291-462A-A38F-966C839C6DF1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3119,10 +3041,10 @@
         <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3059,13 @@
         <v>6942</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -3152,13 +3074,13 @@
         <v>10953</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -3167,13 +3089,13 @@
         <v>17895</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3110,13 @@
         <v>4035</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -3203,13 +3125,13 @@
         <v>9282</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -3218,13 +3140,13 @@
         <v>13317</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3161,13 @@
         <v>174416</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>269</v>
@@ -3254,13 +3176,13 @@
         <v>286183</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>436</v>
@@ -3269,13 +3191,13 @@
         <v>460600</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,7 +3253,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3349,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3364,7 +3286,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3379,7 +3301,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3316,13 @@
         <v>2041</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3409,13 +3331,13 @@
         <v>2898</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -3424,13 +3346,13 @@
         <v>4938</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,10 +3627,10 @@
         <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -3717,13 +3639,13 @@
         <v>6045</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -3732,13 +3654,13 @@
         <v>13112</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3675,13 @@
         <v>10060</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3768,7 +3690,7 @@
         <v>9069</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>153</v>
@@ -3783,13 +3705,13 @@
         <v>19130</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>155</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,7 +3726,7 @@
         <v>7558</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>157</v>
@@ -3822,10 +3744,10 @@
         <v>159</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -3840,7 +3762,7 @@
         <v>122</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3777,13 @@
         <v>170641</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="H32" s="7">
         <v>294</v>
@@ -3876,7 +3798,7 @@
         <v>166</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="M32" s="7">
         <v>480</v>
@@ -3885,13 +3807,13 @@
         <v>478984</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,7 +3887,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3980,7 +3902,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3995,7 +3917,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +3932,13 @@
         <v>15296</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -4028,10 +3950,10 @@
         <v>42</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M35" s="7">
         <v>26</v>
@@ -4040,13 +3962,13 @@
         <v>25239</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +3983,13 @@
         <v>29317</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -4076,13 +3998,13 @@
         <v>29390</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>54</v>
@@ -4091,13 +4013,13 @@
         <v>58706</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4034,13 @@
         <v>17157</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -4133,7 +4055,7 @@
         <v>192</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -4145,10 +4067,10 @@
         <v>15</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4085,13 @@
         <v>594040</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H38" s="7">
         <v>961</v>
@@ -4178,13 +4100,13 @@
         <v>983282</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M38" s="7">
         <v>1558</v>
@@ -4193,13 +4115,13 @@
         <v>1577321</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,7 +4177,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4276,7 +4198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6F85FD-D344-41F9-812F-8397F997F16F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA315E14-C27C-4C21-A020-AA467BA5B8CF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4293,7 +4215,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4406,7 +4328,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4421,7 +4343,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4436,7 +4358,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4373,13 @@
         <v>803</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4472,7 +4394,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4481,13 +4403,13 @@
         <v>803</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,7 +4430,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4523,7 +4445,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4538,7 +4460,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,7 +4481,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4574,7 +4496,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4589,7 +4511,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,10 +4526,10 @@
         <v>26185</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>28</v>
@@ -4622,7 +4544,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -4634,10 +4556,10 @@
         <v>61902</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>28</v>
@@ -4708,13 +4630,13 @@
         <v>916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4729,7 +4651,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -4738,13 +4660,13 @@
         <v>916</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,7 +4687,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4780,7 +4702,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4795,7 +4717,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4762,13 @@
         <v>5319</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4783,13 @@
         <v>4032</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4882,7 +4804,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4894,10 +4816,10 @@
         <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4834,13 @@
         <v>141086</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>182</v>
@@ -4927,13 +4849,13 @@
         <v>194106</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>312</v>
@@ -4942,13 +4864,13 @@
         <v>335192</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,7 +4959,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5052,7 +4974,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +4989,13 @@
         <v>1534</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5088,7 +5010,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5097,13 +5019,13 @@
         <v>1534</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5040,13 @@
         <v>3875</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -5133,13 +5055,13 @@
         <v>6002</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>72</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -5151,10 +5073,10 @@
         <v>52</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5091,13 @@
         <v>8834</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -5184,13 +5106,13 @@
         <v>9234</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -5199,13 +5121,13 @@
         <v>18068</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5142,13 @@
         <v>219361</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
         <v>309</v>
@@ -5235,13 +5157,13 @@
         <v>333741</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M20" s="7">
         <v>511</v>
@@ -5250,13 +5172,13 @@
         <v>553103</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,7 +5234,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5330,7 +5252,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>261</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5345,7 +5267,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5360,7 +5282,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>270</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5297,13 @@
         <v>3870</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5396,7 +5318,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -5405,13 +5327,13 @@
         <v>3870</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5348,13 @@
         <v>4175</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>141</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5441,13 +5363,13 @@
         <v>3088</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5459,10 +5381,10 @@
         <v>39</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>282</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,13 +5399,13 @@
         <v>6971</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -5492,13 +5414,13 @@
         <v>3851</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>224</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -5507,13 +5429,13 @@
         <v>10822</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5450,13 @@
         <v>160378</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H26" s="7">
         <v>202</v>
@@ -5543,13 +5465,13 @@
         <v>222606</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M26" s="7">
         <v>342</v>
@@ -5558,13 +5480,13 @@
         <v>382983</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,7 +5560,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5653,7 +5575,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5683,13 +5605,13 @@
         <v>986</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>270</v>
+        <v>88</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5698,13 +5620,13 @@
         <v>2730</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -5713,13 +5635,13 @@
         <v>3716</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5656,13 @@
         <v>8922</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -5749,13 +5671,13 @@
         <v>6947</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>140</v>
+        <v>299</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>308</v>
+        <v>148</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -5764,13 +5686,13 @@
         <v>15868</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>23</v>
+        <v>301</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,10 +5710,10 @@
         <v>15</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -5800,13 +5722,13 @@
         <v>11345</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>18</v>
+        <v>301</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -5815,13 +5737,13 @@
         <v>15996</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>51</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5758,13 @@
         <v>170104</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>316</v>
+        <v>130</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="H32" s="7">
         <v>290</v>
@@ -5851,13 +5773,13 @@
         <v>304001</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="M32" s="7">
         <v>451</v>
@@ -5866,13 +5788,13 @@
         <v>474105</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>321</v>
+        <v>138</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5862,13 @@
         <v>916</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5961,7 +5883,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -5970,13 +5892,13 @@
         <v>916</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +5913,13 @@
         <v>7193</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>327</v>
+        <v>39</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -6006,13 +5928,13 @@
         <v>2730</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="M35" s="7">
         <v>9</v>
@@ -6021,13 +5943,13 @@
         <v>9923</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>116</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +5964,13 @@
         <v>19136</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="H36" s="7">
         <v>19</v>
@@ -6057,13 +5979,13 @@
         <v>19192</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -6072,13 +5994,13 @@
         <v>38328</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>334</v>
+        <v>85</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6015,13 @@
         <v>24488</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>336</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="H37" s="7">
         <v>21</v>
@@ -6108,13 +6030,13 @@
         <v>24430</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>338</v>
+        <v>128</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>20</v>
+        <v>327</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -6123,13 +6045,13 @@
         <v>48918</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>340</v>
+        <v>145</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>313</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6066,13 @@
         <v>717114</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="H38" s="7">
         <v>1016</v>
@@ -6159,13 +6081,13 @@
         <v>1090170</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>345</v>
+        <v>236</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="M38" s="7">
         <v>1675</v>
@@ -6174,13 +6096,13 @@
         <v>1807284</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,7 +6158,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6257,7 +6179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DEE5FB-168C-46AA-BE66-35C543D78E7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25B7AE5-CE6F-44A4-A094-EF7EC5AF2BD4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6274,7 +6196,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6387,7 +6309,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6402,7 +6324,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6417,7 +6339,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>353</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,7 +6360,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6453,7 +6375,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6468,7 +6390,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>353</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,7 +6411,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6498,13 +6420,13 @@
         <v>1486</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6519,7 +6441,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,7 +6462,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6549,13 +6471,13 @@
         <v>2659</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6564,13 +6486,13 @@
         <v>2659</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,7 +6510,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -6600,13 +6522,13 @@
         <v>30790</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>68</v>
@@ -6615,13 +6537,13 @@
         <v>69132</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,7 +6617,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6740,13 +6662,13 @@
         <v>1976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -6755,13 +6677,13 @@
         <v>881</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -6770,13 +6692,13 @@
         <v>2857</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6713,13 @@
         <v>1021</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>229</v>
+        <v>359</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -6806,13 +6728,13 @@
         <v>4854</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>50</v>
+        <v>362</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -6821,13 +6743,13 @@
         <v>5875</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>377</v>
+        <v>276</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>53</v>
+        <v>274</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,13 +6764,13 @@
         <v>4033</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>119</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>26</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -6857,13 +6779,13 @@
         <v>3256</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>106</v>
+        <v>367</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -6875,10 +6797,10 @@
         <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,13 +6815,13 @@
         <v>142944</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>193</v>
@@ -6908,13 +6830,13 @@
         <v>199980</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>331</v>
@@ -6923,13 +6845,13 @@
         <v>342924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,7 +6925,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7018,7 +6940,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7027,13 +6949,13 @@
         <v>983</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,13 +6970,13 @@
         <v>1135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -7063,13 +6985,13 @@
         <v>884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -7084,7 +7006,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7021,13 @@
         <v>3657</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>142</v>
+        <v>380</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -7114,13 +7036,13 @@
         <v>3584</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>309</v>
+        <v>161</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -7129,13 +7051,13 @@
         <v>7241</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,13 +7072,13 @@
         <v>19140</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -7165,13 +7087,13 @@
         <v>9339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>379</v>
+        <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>326</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -7180,13 +7102,13 @@
         <v>28479</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7123,13 @@
         <v>237796</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>165</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>307</v>
@@ -7216,13 +7138,13 @@
         <v>333389</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>529</v>
@@ -7231,13 +7153,13 @@
         <v>571185</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>335</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>164</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7293,7 +7215,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7311,7 +7233,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>387</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7326,7 +7248,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7341,7 +7263,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,13 +7278,13 @@
         <v>1903</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -7371,13 +7293,13 @@
         <v>2004</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>401</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -7386,13 +7308,13 @@
         <v>3907</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>71</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7329,13 @@
         <v>3937</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>217</v>
+        <v>405</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7422,13 +7344,13 @@
         <v>1089</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7437,13 +7359,13 @@
         <v>5026</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7380,13 @@
         <v>4690</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -7473,13 +7395,13 @@
         <v>12460</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>427</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -7488,13 +7410,13 @@
         <v>17150</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>429</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,13 +7431,13 @@
         <v>163216</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>432</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="H26" s="7">
         <v>213</v>
@@ -7524,13 +7446,13 @@
         <v>232421</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="M26" s="7">
         <v>363</v>
@@ -7539,13 +7461,13 @@
         <v>395637</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7619,7 +7541,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>328</v>
+        <v>423</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7649,7 +7571,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,13 +7586,13 @@
         <v>5863</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>50</v>
+        <v>402</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -7679,13 +7601,13 @@
         <v>1020</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>331</v>
+        <v>426</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -7694,13 +7616,13 @@
         <v>6883</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>15</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,13 +7637,13 @@
         <v>7586</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>442</v>
+        <v>243</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -7730,13 +7652,13 @@
         <v>8161</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>379</v>
+        <v>119</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>46</v>
+        <v>429</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -7745,13 +7667,13 @@
         <v>15747</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>445</v>
+        <v>229</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>446</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7688,13 @@
         <v>17475</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -7781,13 +7703,13 @@
         <v>18499</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="M31" s="7">
         <v>33</v>
@@ -7796,13 +7718,13 @@
         <v>35974</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7739,13 @@
         <v>188118</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="H32" s="7">
         <v>249</v>
@@ -7832,13 +7754,13 @@
         <v>275707</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>93</v>
+        <v>443</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="M32" s="7">
         <v>439</v>
@@ -7847,13 +7769,13 @@
         <v>463825</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7921,13 +7843,13 @@
         <v>983</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7942,7 +7864,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -7951,13 +7873,13 @@
         <v>983</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,10 +7897,10 @@
         <v>159</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>463</v>
+        <v>69</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>271</v>
+        <v>448</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -7987,13 +7909,13 @@
         <v>4789</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>464</v>
+        <v>299</v>
       </c>
       <c r="M35" s="7">
         <v>16</v>
@@ -8002,13 +7924,13 @@
         <v>15666</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>465</v>
+        <v>317</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>466</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +7945,13 @@
         <v>16201</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -8038,13 +7960,13 @@
         <v>19174</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="M36" s="7">
         <v>31</v>
@@ -8053,13 +7975,13 @@
         <v>35375</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>194</v>
+        <v>454</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>470</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8074,13 +7996,13 @@
         <v>45338</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="H37" s="7">
         <v>42</v>
@@ -8089,13 +8011,13 @@
         <v>46214</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>458</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>475</v>
+        <v>89</v>
       </c>
       <c r="M37" s="7">
         <v>83</v>
@@ -8104,13 +8026,13 @@
         <v>91552</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8125,13 +8047,13 @@
         <v>770415</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="H38" s="7">
         <v>993</v>
@@ -8140,13 +8062,13 @@
         <v>1072288</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="M38" s="7">
         <v>1730</v>
@@ -8155,13 +8077,13 @@
         <v>1842702</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8217,7 +8139,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -8238,7 +8160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C44DA1-A4F4-4A16-B03C-372199980778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C32943C-8B18-485D-BD91-0C00FA9AF9D6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8255,7 +8177,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8368,7 +8290,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8383,7 +8305,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8419,7 +8341,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8434,7 +8356,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8470,7 +8392,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -8479,13 +8401,13 @@
         <v>378</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>117</v>
+        <v>474</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -8494,13 +8416,13 @@
         <v>378</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>465</v>
+        <v>317</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>491</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8521,7 +8443,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8536,7 +8458,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8569,7 +8491,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -8581,10 +8503,10 @@
         <v>27606</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>28</v>
@@ -8596,10 +8518,10 @@
         <v>47232</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>496</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>28</v>
@@ -8676,7 +8598,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8691,7 +8613,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8706,7 +8628,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8727,7 +8649,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -8742,7 +8664,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -8751,13 +8673,13 @@
         <v>1349</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>501</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8772,13 +8694,13 @@
         <v>1388</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -8790,10 +8712,10 @@
         <v>221</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>500</v>
+        <v>53</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -8802,13 +8724,13 @@
         <v>3576</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>53</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8823,13 +8745,13 @@
         <v>891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>504</v>
+        <v>299</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -8838,13 +8760,13 @@
         <v>1849</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>122</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>253</v>
+        <v>486</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -8853,13 +8775,13 @@
         <v>2739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>506</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>507</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8874,13 +8796,13 @@
         <v>95439</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>510</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>245</v>
@@ -8889,13 +8811,13 @@
         <v>144779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="M14" s="7">
         <v>359</v>
@@ -8904,13 +8826,13 @@
         <v>240217</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8984,7 +8906,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>517</v>
+        <v>453</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -8993,13 +8915,13 @@
         <v>760</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>497</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -9008,13 +8930,13 @@
         <v>760</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>332</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9032,10 +8954,10 @@
         <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -9044,13 +8966,13 @@
         <v>1757</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -9059,13 +8981,13 @@
         <v>4229</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9080,13 +9002,13 @@
         <v>9861</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>522</v>
+        <v>173</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -9095,13 +9017,13 @@
         <v>10004</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>524</v>
+        <v>148</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>525</v>
+        <v>150</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -9110,13 +9032,13 @@
         <v>19865</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>288</v>
+        <v>504</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>401</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>527</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9131,13 +9053,13 @@
         <v>12376</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>529</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -9146,13 +9068,13 @@
         <v>9088</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>533</v>
+        <v>181</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -9161,13 +9083,13 @@
         <v>21465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>509</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>336</v>
+        <v>452</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9182,13 +9104,13 @@
         <v>170212</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>537</v>
+        <v>372</v>
       </c>
       <c r="H20" s="7">
         <v>320</v>
@@ -9197,13 +9119,13 @@
         <v>217967</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="M20" s="7">
         <v>491</v>
@@ -9212,13 +9134,13 @@
         <v>388178</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9274,7 +9196,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -9292,7 +9214,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9307,7 +9229,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>465</v>
+        <v>317</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9337,13 +9259,13 @@
         <v>3609</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>229</v>
+        <v>521</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>424</v>
+        <v>522</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -9358,7 +9280,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>309</v>
+        <v>523</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -9367,13 +9289,13 @@
         <v>5052</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>405</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>546</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9388,13 +9310,13 @@
         <v>12949</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>548</v>
+        <v>385</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -9403,13 +9325,13 @@
         <v>10735</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>527</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>551</v>
+        <v>506</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -9418,13 +9340,13 @@
         <v>23684</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>154</v>
+        <v>529</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9439,13 +9361,13 @@
         <v>3197</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>405</v>
+        <v>531</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -9454,13 +9376,13 @@
         <v>9863</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>187</v>
+        <v>533</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -9469,13 +9391,13 @@
         <v>13060</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>109</v>
+        <v>535</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>556</v>
+        <v>115</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9490,13 +9412,13 @@
         <v>119543</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="H26" s="7">
         <v>210</v>
@@ -9505,13 +9427,13 @@
         <v>140304</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="M26" s="7">
         <v>332</v>
@@ -9520,13 +9442,13 @@
         <v>259847</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9600,7 +9522,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -9609,13 +9531,13 @@
         <v>666</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>301</v>
+        <v>453</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -9624,13 +9546,13 @@
         <v>666</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>217</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9645,13 +9567,13 @@
         <v>1262</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>72</v>
+        <v>546</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>547</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -9660,13 +9582,13 @@
         <v>2926</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>327</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -9675,13 +9597,13 @@
         <v>4188</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9696,13 +9618,13 @@
         <v>9547</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>569</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>570</v>
+        <v>448</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
@@ -9711,13 +9633,13 @@
         <v>25973</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -9726,13 +9648,13 @@
         <v>35519</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>181</v>
+        <v>555</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9747,13 +9669,13 @@
         <v>11301</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>577</v>
+        <v>281</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>578</v>
+        <v>547</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="H31" s="7">
         <v>23</v>
@@ -9762,13 +9684,13 @@
         <v>15933</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>582</v>
+        <v>158</v>
       </c>
       <c r="M31" s="7">
         <v>36</v>
@@ -9777,13 +9699,13 @@
         <v>27234</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>442</v>
+        <v>243</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>584</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9798,13 +9720,13 @@
         <v>195650</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="H32" s="7">
         <v>392</v>
@@ -9813,13 +9735,13 @@
         <v>297090</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="M32" s="7">
         <v>608</v>
@@ -9828,13 +9750,13 @@
         <v>492740</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9908,7 +9830,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -9917,13 +9839,13 @@
         <v>1426</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -9932,13 +9854,13 @@
         <v>1426</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>593</v>
+        <v>499</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>594</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9953,13 +9875,13 @@
         <v>7343</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>498</v>
+        <v>449</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>418</v>
+        <v>44</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -9968,13 +9890,13 @@
         <v>7474</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>382</v>
+        <v>272</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>569</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -9983,13 +9905,13 @@
         <v>14817</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>104</v>
+        <v>546</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>79</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10004,13 +9926,13 @@
         <v>33745</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>503</v>
+        <v>572</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="H36" s="7">
         <v>67</v>
@@ -10019,13 +9941,13 @@
         <v>49277</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="M36" s="7">
         <v>95</v>
@@ -10034,13 +9956,13 @@
         <v>83022</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10055,13 +9977,13 @@
         <v>27765</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>603</v>
+        <v>401</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>604</v>
+        <v>424</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -10070,13 +9992,13 @@
         <v>36733</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>209</v>
+        <v>581</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>606</v>
+        <v>576</v>
       </c>
       <c r="M37" s="7">
         <v>84</v>
@@ -10085,13 +10007,13 @@
         <v>64498</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>244</v>
+        <v>458</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10106,13 +10028,13 @@
         <v>600470</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="H38" s="7">
         <v>1219</v>
@@ -10121,13 +10043,13 @@
         <v>827745</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="M38" s="7">
         <v>1864</v>
@@ -10136,13 +10058,13 @@
         <v>1428214</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10198,7 +10120,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P17G-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P17G-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A46C13-0DF9-46AE-B4AB-9D03D7850480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C39B02F-66C2-4557-A87D-206BE86AA55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B958C11-B77E-4FEF-93AC-F8C43FC5C6B5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{47FEC1D6-4E4D-4D02-BD58-B46B11DEE861}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="606">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,8%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -98,1687 +98,1738 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>9,14%</t>
+    <t>10,18%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,11%)</t>
+  </si>
+  <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,33%)</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,6%)</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
   </si>
   <si>
     <t>4,18%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>7,15%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>87,93%</t>
   </si>
   <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,11%)</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,33%)</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>5,94%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,6%)</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -2217,7 +2268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8D2BD6-1291-462A-A38F-966C839C6DF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237A9633-8321-42CB-B029-E648F0E7AB53}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3077,7 +3128,7 @@
         <v>82</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>83</v>
@@ -3146,7 +3197,7 @@
         <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3212,13 @@
         <v>174416</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>269</v>
@@ -3176,13 +3227,13 @@
         <v>286183</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>436</v>
@@ -3191,13 +3242,13 @@
         <v>460600</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3304,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3271,7 +3322,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3301,7 +3352,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3367,13 @@
         <v>2041</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3331,13 +3382,13 @@
         <v>2898</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -3346,13 +3397,13 @@
         <v>4938</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3418,13 @@
         <v>11308</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -3382,13 +3433,13 @@
         <v>5138</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -3397,13 +3448,13 @@
         <v>16446</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3469,13 @@
         <v>4614</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3433,13 +3484,13 @@
         <v>8578</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -3448,13 +3499,13 @@
         <v>13192</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>128</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3520,13 @@
         <v>125875</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>187</v>
@@ -3484,13 +3535,13 @@
         <v>182538</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>305</v>
@@ -3499,13 +3550,13 @@
         <v>308412</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,7 +3612,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3579,7 +3630,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3594,7 +3645,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3609,7 +3660,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3675,13 @@
         <v>7067</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -3639,13 +3690,13 @@
         <v>6045</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -3654,13 +3705,13 @@
         <v>13112</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3726,13 @@
         <v>10060</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3690,13 +3741,13 @@
         <v>9069</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -3708,10 +3759,10 @@
         <v>79</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3777,13 @@
         <v>7558</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -3741,13 +3792,13 @@
         <v>4240</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -3759,10 +3810,10 @@
         <v>71</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3828,13 @@
         <v>170641</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="H32" s="7">
         <v>294</v>
@@ -3792,13 +3843,13 @@
         <v>308342</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="M32" s="7">
         <v>480</v>
@@ -3807,13 +3858,13 @@
         <v>478984</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,7 +3938,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3902,7 +3953,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3917,7 +3968,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3983,13 @@
         <v>15296</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -3950,10 +4001,10 @@
         <v>42</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="M35" s="7">
         <v>26</v>
@@ -3962,13 +4013,13 @@
         <v>25239</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,13 +4034,13 @@
         <v>29317</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -3998,13 +4049,13 @@
         <v>29390</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>54</v>
@@ -4013,13 +4064,13 @@
         <v>58706</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,10 +4088,10 @@
         <v>188</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -4049,13 +4100,13 @@
         <v>25756</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -4067,10 +4118,10 @@
         <v>15</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4136,13 @@
         <v>594040</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H38" s="7">
         <v>961</v>
@@ -4100,13 +4151,13 @@
         <v>983282</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M38" s="7">
         <v>1558</v>
@@ -4115,13 +4166,13 @@
         <v>1577321</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,7 +4228,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4198,7 +4249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA315E14-C27C-4C21-A020-AA467BA5B8CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F61D28-E694-422C-985D-ACE1950CED10}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4215,7 +4266,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4328,7 +4379,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4343,7 +4394,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4358,7 +4409,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4424,13 @@
         <v>803</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4394,7 +4445,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4403,13 +4454,13 @@
         <v>803</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,7 +4481,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4445,7 +4496,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4460,7 +4511,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,7 +4532,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4496,7 +4547,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4511,7 +4562,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,10 +4577,10 @@
         <v>26185</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>28</v>
@@ -4544,7 +4595,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -4556,10 +4607,10 @@
         <v>61902</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>28</v>
@@ -4630,13 +4681,13 @@
         <v>916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4651,7 +4702,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -4660,13 +4711,13 @@
         <v>916</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,7 +4738,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4702,7 +4753,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4717,7 +4768,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4783,13 @@
         <v>2165</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -4750,10 +4801,10 @@
         <v>47</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4762,13 +4813,13 @@
         <v>5319</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4834,13 @@
         <v>4032</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4804,7 +4855,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4816,10 +4867,10 @@
         <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4885,13 @@
         <v>141086</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
         <v>182</v>
@@ -4849,13 +4900,13 @@
         <v>194106</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>312</v>
@@ -4864,13 +4915,13 @@
         <v>335192</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,7 +4995,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4959,7 +5010,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4974,7 +5025,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +5040,13 @@
         <v>1534</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5010,7 +5061,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5019,13 +5070,13 @@
         <v>1534</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5091,13 @@
         <v>3875</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -5055,13 +5106,13 @@
         <v>6002</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>72</v>
+        <v>251</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -5073,10 +5124,10 @@
         <v>52</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5142,13 @@
         <v>8834</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -5106,13 +5157,13 @@
         <v>9234</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -5121,13 +5172,13 @@
         <v>18068</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>251</v>
+        <v>47</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5193,13 @@
         <v>219361</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>309</v>
@@ -5157,13 +5208,13 @@
         <v>333741</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>511</v>
@@ -5172,13 +5223,13 @@
         <v>553103</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,7 +5285,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5252,7 +5303,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5267,7 +5318,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5297,13 +5348,13 @@
         <v>3870</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>53</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5318,7 +5369,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -5327,13 +5378,13 @@
         <v>3870</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5399,13 @@
         <v>4175</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>269</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5363,13 +5414,13 @@
         <v>3088</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5381,10 +5432,10 @@
         <v>39</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,13 +5450,13 @@
         <v>6971</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -5414,13 +5465,13 @@
         <v>3851</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -5429,13 +5480,13 @@
         <v>10822</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,13 +5501,13 @@
         <v>160378</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="H26" s="7">
         <v>202</v>
@@ -5465,13 +5516,13 @@
         <v>222606</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="M26" s="7">
         <v>342</v>
@@ -5480,13 +5531,13 @@
         <v>382983</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,7 +5593,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5560,7 +5611,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5575,7 +5626,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5590,7 +5641,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,7 +5662,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5620,13 +5671,13 @@
         <v>2730</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -5635,13 +5686,13 @@
         <v>3716</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5707,13 @@
         <v>8922</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>296</v>
+        <v>95</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -5671,13 +5722,13 @@
         <v>6947</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>148</v>
+        <v>309</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -5686,13 +5737,13 @@
         <v>15868</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,10 +5761,10 @@
         <v>15</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -5722,13 +5773,13 @@
         <v>11345</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -5737,13 +5788,13 @@
         <v>15996</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>23</v>
+        <v>315</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5809,13 @@
         <v>170104</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>130</v>
+        <v>318</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="H32" s="7">
         <v>290</v>
@@ -5773,13 +5824,13 @@
         <v>304001</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="M32" s="7">
         <v>451</v>
@@ -5788,13 +5839,13 @@
         <v>474105</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>138</v>
+        <v>323</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5913,13 @@
         <v>916</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>327</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5883,7 +5934,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -5892,13 +5943,13 @@
         <v>916</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>267</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,10 +5967,10 @@
         <v>106</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>39</v>
+        <v>331</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -5928,13 +5979,13 @@
         <v>2730</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="M35" s="7">
         <v>9</v>
@@ -5943,13 +5994,13 @@
         <v>9923</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>319</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +6015,13 @@
         <v>19136</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>321</v>
+        <v>110</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="H36" s="7">
         <v>19</v>
@@ -5979,13 +6030,13 @@
         <v>19192</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -5994,13 +6045,13 @@
         <v>38328</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>85</v>
+        <v>337</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6066,13 @@
         <v>24488</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>216</v>
+        <v>339</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="H37" s="7">
         <v>21</v>
@@ -6030,13 +6081,13 @@
         <v>24430</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>128</v>
+        <v>342</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -6045,13 +6096,13 @@
         <v>48918</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>186</v>
+        <v>345</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6066,13 +6117,13 @@
         <v>717114</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>331</v>
+        <v>137</v>
       </c>
       <c r="H38" s="7">
         <v>1016</v>
@@ -6081,13 +6132,13 @@
         <v>1090170</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="M38" s="7">
         <v>1675</v>
@@ -6096,13 +6147,13 @@
         <v>1807284</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,7 +6209,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -6179,7 +6230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25B7AE5-CE6F-44A4-A094-EF7EC5AF2BD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F208E-858D-4C44-B8F4-BC29A9FEA9C3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6196,7 +6247,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6309,7 +6360,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6324,7 +6375,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6339,7 +6390,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,7 +6411,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6375,7 +6426,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6390,7 +6441,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,7 +6462,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6420,13 +6471,13 @@
         <v>1486</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6441,7 +6492,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,7 +6513,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6471,13 +6522,13 @@
         <v>2659</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6486,13 +6537,13 @@
         <v>2659</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,7 +6561,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -6522,13 +6573,13 @@
         <v>30790</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="M8" s="7">
         <v>68</v>
@@ -6537,13 +6588,13 @@
         <v>69132</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,7 +6668,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6662,13 +6713,13 @@
         <v>1976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>354</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -6677,13 +6728,13 @@
         <v>881</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -6692,13 +6743,13 @@
         <v>2857</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6713,13 +6764,13 @@
         <v>1021</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -6728,13 +6779,13 @@
         <v>4854</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>362</v>
+        <v>50</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -6743,13 +6794,13 @@
         <v>5875</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6764,13 +6815,13 @@
         <v>4033</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>119</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>26</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -6779,13 +6830,13 @@
         <v>3256</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -6797,10 +6848,10 @@
         <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>357</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6815,13 +6866,13 @@
         <v>142944</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>193</v>
@@ -6830,13 +6881,13 @@
         <v>199980</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>331</v>
@@ -6845,13 +6896,13 @@
         <v>342924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,13 +6970,13 @@
         <v>983</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6940,7 +6991,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -6949,13 +7000,13 @@
         <v>983</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6970,13 +7021,13 @@
         <v>1135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6985,13 +7036,13 @@
         <v>884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -7006,7 +7057,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>379</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7021,13 +7072,13 @@
         <v>3657</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -7036,13 +7087,13 @@
         <v>3584</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>161</v>
+        <v>399</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -7051,13 +7102,13 @@
         <v>7241</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>383</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7072,13 +7123,13 @@
         <v>19140</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>385</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -7087,13 +7138,13 @@
         <v>9339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>338</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -7102,13 +7153,13 @@
         <v>28479</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>249</v>
+        <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>388</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,13 +7174,13 @@
         <v>237796</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="H20" s="7">
         <v>307</v>
@@ -7138,13 +7189,13 @@
         <v>333389</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>529</v>
@@ -7153,13 +7204,13 @@
         <v>571185</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,7 +7266,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7233,7 +7284,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>387</v>
+        <v>258</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7248,7 +7299,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7263,7 +7314,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,13 +7329,13 @@
         <v>1903</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -7293,13 +7344,13 @@
         <v>2004</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -7308,13 +7359,13 @@
         <v>3907</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>403</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7329,13 +7380,13 @@
         <v>3937</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>405</v>
+        <v>217</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7344,13 +7395,13 @@
         <v>1089</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>407</v>
+        <v>286</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7359,13 +7410,13 @@
         <v>5026</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>409</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7380,13 +7431,13 @@
         <v>4690</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>410</v>
+        <v>301</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>423</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -7395,13 +7446,13 @@
         <v>12460</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>412</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>426</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -7410,13 +7461,13 @@
         <v>17150</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,13 +7482,13 @@
         <v>163216</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>430</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>417</v>
+        <v>264</v>
       </c>
       <c r="H26" s="7">
         <v>213</v>
@@ -7446,13 +7497,13 @@
         <v>232421</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="M26" s="7">
         <v>363</v>
@@ -7461,13 +7512,13 @@
         <v>395637</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>311</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7523,7 +7574,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7541,7 +7592,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7571,7 +7622,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7589,10 +7640,10 @@
         <v>93</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>402</v>
+        <v>308</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>424</v>
+        <v>278</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -7601,13 +7652,13 @@
         <v>1020</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>426</v>
+        <v>128</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -7616,13 +7667,13 @@
         <v>6883</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>354</v>
+        <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>410</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,13 +7688,13 @@
         <v>7586</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>243</v>
+        <v>439</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>428</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -7652,13 +7703,13 @@
         <v>8161</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>119</v>
+        <v>338</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>37</v>
+        <v>441</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -7667,13 +7718,13 @@
         <v>15747</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>229</v>
+        <v>443</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7688,13 +7739,13 @@
         <v>17475</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -7703,13 +7754,13 @@
         <v>18499</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="M31" s="7">
         <v>33</v>
@@ -7718,13 +7769,13 @@
         <v>35974</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>437</v>
+        <v>109</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7739,13 +7790,13 @@
         <v>188118</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="H32" s="7">
         <v>249</v>
@@ -7754,13 +7805,13 @@
         <v>275707</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="M32" s="7">
         <v>439</v>
@@ -7769,13 +7820,13 @@
         <v>463825</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7843,13 +7894,13 @@
         <v>983</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>53</v>
+        <v>423</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7864,7 +7915,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -7873,13 +7924,13 @@
         <v>983</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,13 +7945,13 @@
         <v>10877</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>448</v>
+        <v>71</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -7909,13 +7960,13 @@
         <v>4789</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="M35" s="7">
         <v>16</v>
@@ -7924,13 +7975,13 @@
         <v>15666</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>317</v>
+        <v>459</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7945,13 +7996,13 @@
         <v>16201</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>452</v>
+        <v>218</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -7960,13 +8011,13 @@
         <v>19174</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>453</v>
+        <v>180</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="M36" s="7">
         <v>31</v>
@@ -7975,13 +8026,13 @@
         <v>35375</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>454</v>
+        <v>313</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>25</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>15</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,13 +8047,13 @@
         <v>45338</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="H37" s="7">
         <v>42</v>
@@ -8011,13 +8062,13 @@
         <v>46214</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>89</v>
+        <v>468</v>
       </c>
       <c r="M37" s="7">
         <v>83</v>
@@ -8026,13 +8077,13 @@
         <v>91552</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>461</v>
+        <v>194</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,13 +8098,13 @@
         <v>770415</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="H38" s="7">
         <v>993</v>
@@ -8062,13 +8113,13 @@
         <v>1072288</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="M38" s="7">
         <v>1730</v>
@@ -8077,13 +8128,13 @@
         <v>1842702</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8139,7 +8190,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -8160,7 +8211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C32943C-8B18-485D-BD91-0C00FA9AF9D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D243243-B3AA-4170-89C3-EB6C38DCADCF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8177,7 +8228,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8290,7 +8341,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8305,7 +8356,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8341,7 +8392,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8356,7 +8407,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8392,7 +8443,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -8401,13 +8452,13 @@
         <v>378</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -8416,13 +8467,13 @@
         <v>378</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>317</v>
+        <v>459</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>385</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8443,7 +8494,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8458,7 +8509,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8491,7 +8542,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -8503,10 +8554,10 @@
         <v>27606</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>28</v>
@@ -8518,10 +8569,10 @@
         <v>47232</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>28</v>
@@ -8598,7 +8649,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>75</v>
+        <v>489</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8613,7 +8664,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8628,7 +8679,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8649,7 +8700,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>75</v>
+        <v>489</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -8658,13 +8709,13 @@
         <v>1349</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -8673,13 +8724,13 @@
         <v>1349</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8694,13 +8745,13 @@
         <v>1388</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -8709,13 +8760,13 @@
         <v>2188</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -8724,13 +8775,13 @@
         <v>3576</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>264</v>
+        <v>113</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8745,13 +8796,13 @@
         <v>891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>497</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -8760,13 +8811,13 @@
         <v>1849</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>498</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -8775,13 +8826,13 @@
         <v>2739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>487</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8796,13 +8847,13 @@
         <v>95439</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H14" s="7">
         <v>245</v>
@@ -8811,13 +8862,13 @@
         <v>144779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="M14" s="7">
         <v>359</v>
@@ -8826,13 +8877,13 @@
         <v>240217</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8906,7 +8957,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>453</v>
+        <v>119</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -8915,13 +8966,13 @@
         <v>760</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -8930,7 +8981,7 @@
         <v>760</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
@@ -8954,10 +9005,10 @@
         <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -8966,10 +9017,10 @@
         <v>1757</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>87</v>
@@ -8981,13 +9032,13 @@
         <v>4229</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>180</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9002,13 +9053,13 @@
         <v>9861</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>363</v>
+        <v>515</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -9017,13 +9068,13 @@
         <v>10004</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>148</v>
+        <v>517</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>150</v>
+        <v>518</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>503</v>
+        <v>406</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -9032,13 +9083,13 @@
         <v>19865</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9053,13 +9104,13 @@
         <v>12376</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -9068,13 +9119,13 @@
         <v>9088</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -9083,13 +9134,13 @@
         <v>21465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>452</v>
+        <v>376</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9104,13 +9155,13 @@
         <v>170212</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>529</v>
       </c>
       <c r="H20" s="7">
         <v>320</v>
@@ -9119,13 +9170,13 @@
         <v>217967</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="M20" s="7">
         <v>491</v>
@@ -9134,13 +9185,13 @@
         <v>388178</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9196,7 +9247,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -9214,7 +9265,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>519</v>
+        <v>178</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9229,7 +9280,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>317</v>
+        <v>459</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9244,7 +9295,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9259,13 +9310,13 @@
         <v>3609</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -9280,7 +9331,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -9289,10 +9340,10 @@
         <v>5052</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>189</v>
+        <v>540</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>84</v>
@@ -9310,13 +9361,13 @@
         <v>12949</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>385</v>
+        <v>484</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -9325,13 +9376,13 @@
         <v>10735</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -9340,13 +9391,13 @@
         <v>23684</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9361,13 +9412,13 @@
         <v>3197</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>150</v>
+        <v>518</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -9376,13 +9427,13 @@
         <v>9863</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>533</v>
+        <v>254</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>534</v>
+        <v>358</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -9391,13 +9442,13 @@
         <v>13060</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9412,13 +9463,13 @@
         <v>119543</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="H26" s="7">
         <v>210</v>
@@ -9427,13 +9478,13 @@
         <v>140304</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="M26" s="7">
         <v>332</v>
@@ -9442,13 +9493,13 @@
         <v>259847</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>543</v>
+        <v>408</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9504,7 +9555,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9522,7 +9573,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -9531,13 +9582,13 @@
         <v>666</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>453</v>
+        <v>119</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -9546,13 +9597,13 @@
         <v>666</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9567,13 +9618,13 @@
         <v>1262</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>546</v>
+        <v>72</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>547</v>
+        <v>419</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -9582,13 +9633,13 @@
         <v>2926</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>183</v>
+        <v>562</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -9597,10 +9648,10 @@
         <v>4188</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>52</v>
@@ -9618,13 +9669,13 @@
         <v>9547</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>187</v>
+        <v>563</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>448</v>
+        <v>564</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
@@ -9633,13 +9684,13 @@
         <v>25973</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>552</v>
+        <v>404</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -9648,13 +9699,13 @@
         <v>35519</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9669,13 +9720,13 @@
         <v>11301</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>281</v>
+        <v>571</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>547</v>
+        <v>419</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="H31" s="7">
         <v>23</v>
@@ -9684,13 +9735,13 @@
         <v>15933</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>158</v>
+        <v>575</v>
       </c>
       <c r="M31" s="7">
         <v>36</v>
@@ -9699,13 +9750,13 @@
         <v>27234</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>243</v>
+        <v>439</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9720,13 +9771,13 @@
         <v>195650</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="H32" s="7">
         <v>392</v>
@@ -9735,13 +9786,13 @@
         <v>297090</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="M32" s="7">
         <v>608</v>
@@ -9750,13 +9801,13 @@
         <v>492740</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>195</v>
+        <v>582</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9830,7 +9881,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -9839,13 +9890,13 @@
         <v>1426</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -9854,13 +9905,13 @@
         <v>1426</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9875,10 +9926,10 @@
         <v>7343</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>449</v>
+        <v>586</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>44</v>
@@ -9890,13 +9941,13 @@
         <v>7474</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>569</v>
+        <v>151</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -9905,13 +9956,13 @@
         <v>14817</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>546</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9926,13 +9977,13 @@
         <v>33745</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>571</v>
+        <v>384</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="H36" s="7">
         <v>67</v>
@@ -9941,13 +9992,13 @@
         <v>49277</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>368</v>
+        <v>591</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="M36" s="7">
         <v>95</v>
@@ -9956,13 +10007,13 @@
         <v>83022</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>577</v>
+        <v>49</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9977,13 +10028,13 @@
         <v>27765</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>401</v>
+        <v>520</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>424</v>
+        <v>596</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -9992,13 +10043,13 @@
         <v>36733</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="M37" s="7">
         <v>84</v>
@@ -10007,13 +10058,13 @@
         <v>64498</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>571</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10028,13 +10079,13 @@
         <v>600470</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="H38" s="7">
         <v>1219</v>
@@ -10043,13 +10094,13 @@
         <v>827745</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="M38" s="7">
         <v>1864</v>
@@ -10058,13 +10109,13 @@
         <v>1428214</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10120,7 +10171,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P17G-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P17G-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C39B02F-66C2-4557-A87D-206BE86AA55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{497C6144-78C4-45E8-BCD9-A3F43BC9F4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{47FEC1D6-4E4D-4D02-BD58-B46B11DEE861}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{48981659-8179-4EE7-810F-187905FB9F37}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="615">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,8%)</t>
   </si>
@@ -98,13 +98,13 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>10,18%</t>
+    <t>8,84%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>5,43%</t>
+    <t>5,94%</t>
   </si>
   <si>
     <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
@@ -113,13 +113,13 @@
     <t>1,74%</t>
   </si>
   <si>
-    <t>8,7%</t>
+    <t>7,13%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>6,19%</t>
+    <t>6,63%</t>
   </si>
   <si>
     <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
@@ -137,13 +137,13 @@
     <t>96,46%</t>
   </si>
   <si>
-    <t>87,97%</t>
+    <t>89,13%</t>
   </si>
   <si>
     <t>97,5%</t>
   </si>
   <si>
-    <t>92,51%</t>
+    <t>91,8%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -161,1702 +161,1729 @@
     <t>1,79%</t>
   </si>
   <si>
-    <t>6,32%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,11%)</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,33%)</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,6%)</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,11%)</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
   </si>
   <si>
     <t>91,07%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,33%)</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,6%)</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
   </si>
 </sst>
 </file>
@@ -2268,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237A9633-8321-42CB-B029-E648F0E7AB53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D55D34-26C9-4F50-A860-58D1670EDD95}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3092,10 +3119,10 @@
         <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3137,13 @@
         <v>6942</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -3125,13 +3152,13 @@
         <v>10953</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -3140,13 +3167,13 @@
         <v>17895</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3188,13 @@
         <v>4035</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -3176,13 +3203,13 @@
         <v>9282</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -3191,13 +3218,13 @@
         <v>13317</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3239,13 @@
         <v>174416</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>269</v>
@@ -3227,13 +3254,13 @@
         <v>286183</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>436</v>
@@ -3242,13 +3269,13 @@
         <v>460600</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,7 +3331,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3322,7 +3349,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3337,7 +3364,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3352,7 +3379,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3394,13 @@
         <v>2041</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3382,13 +3409,13 @@
         <v>2898</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -3397,13 +3424,13 @@
         <v>4938</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3445,13 @@
         <v>11308</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -3433,13 +3460,13 @@
         <v>5138</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -3448,13 +3475,13 @@
         <v>16446</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3496,13 @@
         <v>4614</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3484,13 +3511,13 @@
         <v>8578</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -3499,13 +3526,13 @@
         <v>13192</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>128</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3547,13 @@
         <v>125875</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>187</v>
@@ -3535,13 +3562,13 @@
         <v>182538</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>305</v>
@@ -3550,13 +3577,13 @@
         <v>308412</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3639,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3630,7 +3657,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3645,7 +3672,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3660,7 +3687,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3702,13 @@
         <v>7067</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -3690,13 +3717,13 @@
         <v>6045</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -3705,13 +3732,13 @@
         <v>13112</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3753,13 @@
         <v>10060</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3741,13 +3768,13 @@
         <v>9069</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -3756,13 +3783,13 @@
         <v>19130</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3804,13 @@
         <v>7558</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -3792,13 +3819,13 @@
         <v>4240</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -3810,10 +3837,10 @@
         <v>71</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3855,13 @@
         <v>170641</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H32" s="7">
         <v>294</v>
@@ -3843,13 +3870,13 @@
         <v>308342</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M32" s="7">
         <v>480</v>
@@ -3858,13 +3885,13 @@
         <v>478984</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,7 +3965,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3953,7 +3980,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3968,7 +3995,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,13 +4010,13 @@
         <v>15296</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -4001,10 +4028,10 @@
         <v>42</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="M35" s="7">
         <v>26</v>
@@ -4013,13 +4040,13 @@
         <v>25239</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4112,13 @@
         <v>17157</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -4100,13 +4127,13 @@
         <v>25756</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -4118,10 +4145,10 @@
         <v>15</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,7 +4169,7 @@
         <v>197</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="H38" s="7">
         <v>961</v>
@@ -4151,13 +4178,13 @@
         <v>983282</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M38" s="7">
         <v>1558</v>
@@ -4166,13 +4193,13 @@
         <v>1577321</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,7 +4255,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4249,7 +4276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F61D28-E694-422C-985D-ACE1950CED10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6B0ED6-6342-4A2F-B7F5-668F01BA57B4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4266,7 +4293,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4379,7 +4406,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4394,7 +4421,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4409,7 +4436,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,7 +4472,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4481,7 +4508,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4496,7 +4523,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4511,7 +4538,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,7 +4559,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4547,7 +4574,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4562,7 +4589,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,7 +4637,7 @@
         <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>28</v>
@@ -4687,7 +4714,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4702,7 +4729,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -4711,13 +4738,13 @@
         <v>916</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,7 +4765,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4753,7 +4780,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4783,13 +4810,13 @@
         <v>2165</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -4801,10 +4828,10 @@
         <v>47</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4813,13 +4840,13 @@
         <v>5319</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4861,13 @@
         <v>4032</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4855,7 +4882,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4867,10 +4894,10 @@
         <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4912,13 @@
         <v>141086</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H14" s="7">
         <v>182</v>
@@ -4900,13 +4927,13 @@
         <v>194106</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>312</v>
@@ -4915,13 +4942,13 @@
         <v>335192</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,7 +5022,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5025,7 +5052,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5067,13 @@
         <v>1534</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5070,13 +5097,13 @@
         <v>1534</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,10 +5118,10 @@
         <v>3875</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>249</v>
@@ -5109,10 +5136,10 @@
         <v>250</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -5124,10 +5151,10 @@
         <v>52</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5169,13 @@
         <v>8834</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -5157,13 +5184,13 @@
         <v>9234</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -5172,13 +5199,13 @@
         <v>18068</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5220,13 @@
         <v>219361</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>309</v>
@@ -5208,13 +5235,13 @@
         <v>333741</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>511</v>
@@ -5223,13 +5250,13 @@
         <v>553103</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,7 +5312,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5303,7 +5330,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5318,7 +5345,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5333,7 +5360,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>88</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5375,13 @@
         <v>3870</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5369,7 +5396,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -5378,13 +5405,13 @@
         <v>3870</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,13 +5426,13 @@
         <v>4175</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5414,13 +5441,13 @@
         <v>3088</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5453,10 +5480,10 @@
         <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -5465,13 +5492,13 @@
         <v>3851</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -5480,13 +5507,13 @@
         <v>10822</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,13 +5528,13 @@
         <v>160378</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>202</v>
@@ -5516,13 +5543,13 @@
         <v>222606</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>342</v>
@@ -5531,13 +5558,13 @@
         <v>382983</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,7 +5620,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5611,7 +5638,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5641,7 +5668,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5683,13 @@
         <v>986</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>301</v>
+        <v>160</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5677,7 +5704,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>90</v>
+        <v>303</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -5686,13 +5713,13 @@
         <v>3716</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5734,13 @@
         <v>8922</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>95</v>
+        <v>306</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>305</v>
+        <v>41</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -5722,13 +5749,13 @@
         <v>6947</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -5737,13 +5764,13 @@
         <v>15868</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,10 +5788,10 @@
         <v>15</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>119</v>
+        <v>311</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -5773,10 +5800,10 @@
         <v>11345</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>314</v>
@@ -5788,13 +5815,13 @@
         <v>15996</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>315</v>
+        <v>146</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>316</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5836,13 @@
         <v>170104</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H32" s="7">
         <v>290</v>
@@ -5824,13 +5851,13 @@
         <v>304001</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M32" s="7">
         <v>451</v>
@@ -5839,13 +5866,13 @@
         <v>474105</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5940,13 @@
         <v>916</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>327</v>
+        <v>226</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5934,7 +5961,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -5943,13 +5970,13 @@
         <v>916</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5991,13 @@
         <v>7193</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -5979,13 +6006,13 @@
         <v>2730</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M35" s="7">
         <v>9</v>
@@ -5994,13 +6021,13 @@
         <v>9923</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6042,13 @@
         <v>19136</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="H36" s="7">
         <v>19</v>
@@ -6030,13 +6057,13 @@
         <v>19192</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>76</v>
+        <v>332</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -6045,13 +6072,13 @@
         <v>38328</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6066,13 +6093,13 @@
         <v>24488</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="H37" s="7">
         <v>21</v>
@@ -6081,13 +6108,13 @@
         <v>24430</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -6096,13 +6123,13 @@
         <v>48918</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>345</v>
+        <v>188</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>148</v>
+        <v>340</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6144,13 @@
         <v>717114</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>137</v>
+        <v>343</v>
       </c>
       <c r="H38" s="7">
         <v>1016</v>
@@ -6132,13 +6159,13 @@
         <v>1090170</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M38" s="7">
         <v>1675</v>
@@ -6147,13 +6174,13 @@
         <v>1807284</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,7 +6236,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6230,7 +6257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F208E-858D-4C44-B8F4-BC29A9FEA9C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C259A69-19B9-4F36-AB6D-FA4D3B1D0AF3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6247,7 +6274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6360,7 +6387,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6375,7 +6402,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6390,7 +6417,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,7 +6438,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6426,7 +6453,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6441,7 +6468,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,7 +6489,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6471,13 +6498,13 @@
         <v>1486</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6492,7 +6519,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,7 +6540,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6522,13 +6549,13 @@
         <v>2659</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6537,13 +6564,13 @@
         <v>2659</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6561,7 +6588,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -6573,13 +6600,13 @@
         <v>30790</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M8" s="7">
         <v>68</v>
@@ -6588,13 +6615,13 @@
         <v>69132</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>369</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6668,7 +6695,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6713,13 +6740,13 @@
         <v>1976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -6728,13 +6755,13 @@
         <v>881</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>371</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -6743,13 +6770,13 @@
         <v>2857</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6764,13 +6791,13 @@
         <v>1021</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>327</v>
+        <v>229</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -6779,13 +6806,13 @@
         <v>4854</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -6794,13 +6821,13 @@
         <v>5875</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6815,13 +6842,13 @@
         <v>4033</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -6830,13 +6857,13 @@
         <v>3256</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>383</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>106</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -6848,10 +6875,10 @@
         <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6866,13 +6893,13 @@
         <v>142944</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>193</v>
@@ -6881,13 +6908,13 @@
         <v>199980</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>390</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>331</v>
@@ -6896,13 +6923,13 @@
         <v>342924</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6970,13 +6997,13 @@
         <v>983</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>331</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6991,7 +7018,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7000,13 +7027,13 @@
         <v>983</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7021,13 +7048,13 @@
         <v>1135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -7036,13 +7063,13 @@
         <v>884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -7057,7 +7084,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>25</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7072,13 +7099,13 @@
         <v>3657</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>330</v>
+        <v>142</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -7087,13 +7114,13 @@
         <v>3584</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>399</v>
+        <v>309</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -7102,13 +7129,13 @@
         <v>7241</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,10 +7150,10 @@
         <v>19140</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>402</v>
@@ -7138,13 +7165,13 @@
         <v>9339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -7153,13 +7180,13 @@
         <v>28479</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7174,13 +7201,13 @@
         <v>237796</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>165</v>
       </c>
       <c r="H20" s="7">
         <v>307</v>
@@ -7189,13 +7216,13 @@
         <v>333389</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>529</v>
@@ -7204,13 +7231,13 @@
         <v>571185</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>295</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>413</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,7 +7293,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7284,7 +7311,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7314,7 +7341,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7329,13 +7356,13 @@
         <v>1903</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -7344,13 +7371,13 @@
         <v>2004</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>419</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -7359,13 +7386,13 @@
         <v>3907</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7380,13 +7407,13 @@
         <v>3937</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>217</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7395,13 +7422,13 @@
         <v>1089</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>286</v>
+        <v>420</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7410,13 +7437,13 @@
         <v>5026</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>254</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,10 +7458,10 @@
         <v>4690</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>301</v>
+        <v>423</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>423</v>
+        <v>229</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>424</v>
@@ -7446,13 +7473,13 @@
         <v>12460</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>425</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -7461,13 +7488,13 @@
         <v>17150</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>192</v>
+        <v>429</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7482,13 +7509,13 @@
         <v>163216</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>264</v>
+        <v>433</v>
       </c>
       <c r="H26" s="7">
         <v>213</v>
@@ -7497,13 +7524,13 @@
         <v>232421</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M26" s="7">
         <v>363</v>
@@ -7512,13 +7539,13 @@
         <v>395637</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7574,7 +7601,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7592,7 +7619,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>437</v>
+        <v>328</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7622,7 +7649,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,13 +7664,13 @@
         <v>5863</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>308</v>
+        <v>50</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>278</v>
+        <v>440</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -7652,13 +7679,13 @@
         <v>1020</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>128</v>
+        <v>331</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -7667,10 +7694,10 @@
         <v>6883</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>368</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>15</v>
@@ -7688,13 +7715,13 @@
         <v>7586</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>444</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -7703,13 +7730,13 @@
         <v>8161</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>441</v>
+        <v>68</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>442</v>
+        <v>46</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -7718,13 +7745,13 @@
         <v>15747</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>384</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7739,13 +7766,13 @@
         <v>17475</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -7754,13 +7781,13 @@
         <v>18499</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M31" s="7">
         <v>33</v>
@@ -7769,13 +7796,13 @@
         <v>35974</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>109</v>
+        <v>453</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7790,13 +7817,13 @@
         <v>188118</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="H32" s="7">
         <v>249</v>
@@ -7805,13 +7832,13 @@
         <v>275707</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>454</v>
+        <v>93</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="M32" s="7">
         <v>439</v>
@@ -7820,13 +7847,13 @@
         <v>463825</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,13 +7921,13 @@
         <v>983</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>423</v>
+        <v>69</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7915,7 +7942,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -7924,13 +7951,13 @@
         <v>983</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7945,13 +7972,13 @@
         <v>10877</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>38</v>
+        <v>463</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -7960,13 +7987,13 @@
         <v>4789</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>371</v>
+        <v>279</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>272</v>
+        <v>464</v>
       </c>
       <c r="M35" s="7">
         <v>16</v>
@@ -7975,13 +8002,13 @@
         <v>15666</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>20</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,13 +8023,13 @@
         <v>16201</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>462</v>
+        <v>301</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>218</v>
+        <v>468</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -8011,13 +8038,13 @@
         <v>19174</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>180</v>
+        <v>469</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="M36" s="7">
         <v>31</v>
@@ -8026,13 +8053,13 @@
         <v>35375</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>334</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,13 +8074,13 @@
         <v>45338</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="H37" s="7">
         <v>42</v>
@@ -8062,13 +8089,13 @@
         <v>46214</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>466</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="M37" s="7">
         <v>83</v>
@@ -8077,13 +8104,13 @@
         <v>91552</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>194</v>
+        <v>477</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8098,13 +8125,13 @@
         <v>770415</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="H38" s="7">
         <v>993</v>
@@ -8113,13 +8140,13 @@
         <v>1072288</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M38" s="7">
         <v>1730</v>
@@ -8128,13 +8155,13 @@
         <v>1842702</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8190,7 +8217,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -8211,7 +8238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D243243-B3AA-4170-89C3-EB6C38DCADCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457F8A97-3CB6-4D2A-BE24-4CC221523537}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8228,7 +8255,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8341,7 +8368,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8356,7 +8383,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8392,7 +8419,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8407,7 +8434,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8443,7 +8470,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -8452,13 +8479,13 @@
         <v>378</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>483</v>
+        <v>117</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -8467,13 +8494,13 @@
         <v>378</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8494,7 +8521,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8509,7 +8536,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8542,7 +8569,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -8554,10 +8581,10 @@
         <v>27606</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>28</v>
@@ -8569,10 +8596,10 @@
         <v>47232</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>101</v>
+        <v>496</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>28</v>
@@ -8649,7 +8676,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>489</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8664,7 +8691,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8679,7 +8706,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8700,7 +8727,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>489</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -8709,13 +8736,13 @@
         <v>1349</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -8724,13 +8751,13 @@
         <v>1349</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>310</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8745,13 +8772,13 @@
         <v>1388</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -8760,13 +8787,13 @@
         <v>2188</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>53</v>
+        <v>500</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -8775,13 +8802,13 @@
         <v>3576</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8796,13 +8823,13 @@
         <v>891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>308</v>
+        <v>504</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>497</v>
+        <v>106</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -8811,13 +8838,13 @@
         <v>1849</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>498</v>
+        <v>122</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>499</v>
+        <v>253</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -8826,13 +8853,13 @@
         <v>2739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>505</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>243</v>
+        <v>506</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8847,13 +8874,13 @@
         <v>95439</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>239</v>
+        <v>510</v>
       </c>
       <c r="H14" s="7">
         <v>245</v>
@@ -8862,13 +8889,13 @@
         <v>144779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="M14" s="7">
         <v>359</v>
@@ -8877,13 +8904,13 @@
         <v>240217</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8957,7 +8984,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>119</v>
+        <v>517</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -8966,13 +8993,13 @@
         <v>760</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>510</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -8981,13 +9008,13 @@
         <v>760</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>50</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9005,10 +9032,10 @@
         <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -9017,13 +9044,13 @@
         <v>1757</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -9032,13 +9059,13 @@
         <v>4229</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>180</v>
+        <v>464</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>514</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9053,13 +9080,13 @@
         <v>9861</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>515</v>
+        <v>403</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>177</v>
+        <v>522</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -9068,13 +9095,13 @@
         <v>10004</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>406</v>
+        <v>526</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -9083,13 +9110,13 @@
         <v>19865</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>519</v>
+        <v>288</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>520</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>401</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9104,13 +9131,13 @@
         <v>12376</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>529</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -9119,13 +9146,13 @@
         <v>9088</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>533</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -9134,13 +9161,13 @@
         <v>21465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>525</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9155,13 +9182,13 @@
         <v>170212</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="H20" s="7">
         <v>320</v>
@@ -9170,13 +9197,13 @@
         <v>217967</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="M20" s="7">
         <v>491</v>
@@ -9185,13 +9212,13 @@
         <v>388178</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9247,7 +9274,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -9265,7 +9292,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>178</v>
+        <v>544</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9280,7 +9307,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9295,7 +9322,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9310,13 +9337,13 @@
         <v>3609</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>537</v>
+        <v>229</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>538</v>
+        <v>424</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -9331,7 +9358,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>539</v>
+        <v>309</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -9340,13 +9367,13 @@
         <v>5052</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>540</v>
+        <v>177</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>423</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>84</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9361,13 +9388,13 @@
         <v>12949</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -9376,13 +9403,13 @@
         <v>10735</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>544</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -9391,13 +9418,13 @@
         <v>23684</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>546</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9412,13 +9439,13 @@
         <v>3197</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>518</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>548</v>
+        <v>405</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -9427,13 +9454,13 @@
         <v>9863</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>358</v>
+        <v>555</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -9442,13 +9469,13 @@
         <v>13060</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>550</v>
+        <v>109</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>118</v>
+        <v>556</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9463,13 +9490,13 @@
         <v>119543</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="H26" s="7">
         <v>210</v>
@@ -9478,13 +9505,13 @@
         <v>140304</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="M26" s="7">
         <v>332</v>
@@ -9493,13 +9520,13 @@
         <v>259847</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>408</v>
+        <v>564</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9555,7 +9582,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9573,7 +9600,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -9582,13 +9609,13 @@
         <v>666</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -9597,13 +9624,13 @@
         <v>666</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>303</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9624,7 +9651,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>419</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -9633,13 +9660,13 @@
         <v>2926</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>562</v>
+        <v>327</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -9648,13 +9675,13 @@
         <v>4188</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>276</v>
+        <v>372</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9669,13 +9696,13 @@
         <v>9547</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
@@ -9684,13 +9711,13 @@
         <v>25973</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>404</v>
+        <v>573</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -9699,13 +9726,13 @@
         <v>35519</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>569</v>
+        <v>181</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9720,13 +9747,13 @@
         <v>11301</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>419</v>
+        <v>578</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="H31" s="7">
         <v>23</v>
@@ -9735,13 +9762,13 @@
         <v>15933</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="M31" s="7">
         <v>36</v>
@@ -9750,13 +9777,13 @@
         <v>27234</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>494</v>
+        <v>583</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>424</v>
+        <v>584</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9771,13 +9798,13 @@
         <v>195650</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="H32" s="7">
         <v>392</v>
@@ -9786,13 +9813,13 @@
         <v>297090</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="M32" s="7">
         <v>608</v>
@@ -9801,13 +9828,13 @@
         <v>492740</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>582</v>
+        <v>197</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9881,7 +9908,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -9890,13 +9917,13 @@
         <v>1426</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -9905,13 +9932,13 @@
         <v>1426</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>512</v>
+        <v>593</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>174</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9926,13 +9953,13 @@
         <v>7343</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>586</v>
+        <v>498</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>44</v>
+        <v>418</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -9941,13 +9968,13 @@
         <v>7474</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>280</v>
+        <v>382</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -9956,13 +9983,13 @@
         <v>14817</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>587</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9977,13 +10004,13 @@
         <v>33745</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>384</v>
+        <v>595</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>588</v>
+        <v>503</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="H36" s="7">
         <v>67</v>
@@ -9992,13 +10019,13 @@
         <v>49277</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>591</v>
+        <v>384</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="M36" s="7">
         <v>95</v>
@@ -10007,13 +10034,13 @@
         <v>83022</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>49</v>
+        <v>600</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10028,13 +10055,13 @@
         <v>27765</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -10043,13 +10070,13 @@
         <v>36733</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>598</v>
+        <v>209</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="M37" s="7">
         <v>84</v>
@@ -10058,13 +10085,13 @@
         <v>64498</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>466</v>
+        <v>244</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>384</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10079,13 +10106,13 @@
         <v>600470</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="H38" s="7">
         <v>1219</v>
@@ -10094,13 +10121,13 @@
         <v>827745</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="M38" s="7">
         <v>1864</v>
@@ -10109,13 +10136,13 @@
         <v>1428214</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10171,7 +10198,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
